--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/USD_020_ForwardSwapQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/USD_020_ForwardSwapQuotes.xlsx
@@ -13,9 +13,6 @@
     <sheet name="6M" sheetId="26" r:id="rId4"/>
     <sheet name="1Y" sheetId="24" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Currency">'General Settings'!$D$14</definedName>
     <definedName name="FamilyName">'General Settings'!$D$15</definedName>
@@ -35,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="71">
   <si>
     <t>Currency</t>
   </si>
@@ -245,6 +242,9 @@
   </si>
   <si>
     <t>ForBasisCalc</t>
+  </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -792,22 +792,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1184,9 +1168,8 @@
       <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="12" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
+      <c r="D8" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="E8" s="11"/>
     </row>
@@ -1382,7 +1365,7 @@
       </c>
       <c r="L2" s="28" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K2)</f>
-        <v>ohObjectSave - Object list is empty</v>
+        <v/>
       </c>
       <c r="M2" s="36"/>
       <c r="O2" s="46"/>
@@ -3053,7 +3036,7 @@
       </c>
       <c r="L2" s="43" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K2)</f>
-        <v>ohObjectSave - Object list is empty</v>
+        <v/>
       </c>
       <c r="M2" s="36"/>
       <c r="O2" s="46"/>
@@ -4719,12 +4702,12 @@
         <f>Currency&amp;"_020_Sw"&amp;$C$3&amp;$D$3&amp;IF(H3=0,,"_Spr"&amp;$F3&amp;$G3)&amp;".xml"</f>
         <v>USD_020_SwAM3L_Spr6L3L.xml</v>
       </c>
-      <c r="K2" s="42">
+      <c r="K2" s="42" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(K3:K36,SerializationPath&amp;J2,FileOverwrite,Serialize),"---")</f>
-        <v>34</v>
+        <v>#NUM!</v>
       </c>
       <c r="L2" s="43" t="str">
-        <f>_xll.ohRangeRetrieveError(K2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(K2)</f>
         <v/>
       </c>
       <c r="M2" s="36"/>
@@ -6500,12 +6483,12 @@
         <f>Currency&amp;"_020_Sw"&amp;$C$3&amp;$D$3&amp;IF(H3=0,,"_Spr"&amp;$F3&amp;$G3)&amp;".xml"</f>
         <v>USD_020_SwAM3L_Spr12L3L.xml</v>
       </c>
-      <c r="K2" s="42">
+      <c r="K2" s="42" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(K3:K36,SerializationPath&amp;J2,FileOverwrite,Serialize),"---")</f>
-        <v>34</v>
+        <v>#NUM!</v>
       </c>
       <c r="L2" s="43" t="str">
-        <f>_xll.ohRangeRetrieveError(K2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(K2)</f>
         <v/>
       </c>
       <c r="M2" s="36"/>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/USD_020_ForwardSwapQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/USD_020_ForwardSwapQuotes.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="70">
   <si>
     <t>Currency</t>
   </si>
@@ -242,9 +242,6 @@
   </si>
   <si>
     <t>ForBasisCalc</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1168,8 +1165,9 @@
       <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>70</v>
+      <c r="D8" s="12" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
       </c>
       <c r="E8" s="11"/>
     </row>
@@ -1360,12 +1358,12 @@
         <v>USD_020_SwAM3L_Fwd1w.xml</v>
       </c>
       <c r="K2" s="27" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(K3:K36,SerializationPath&amp;J2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L2" s="28" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(K3:K36,SerializationPath&amp;J2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L2" s="28" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M2" s="36"/>
       <c r="O2" s="46"/>
@@ -3031,12 +3029,12 @@
         <v>USD_020_SwAM6L_Fwd1w.xml</v>
       </c>
       <c r="K2" s="42" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(K3:K36,SerializationPath&amp;J2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L2" s="43" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(K3:K36,SerializationPath&amp;J2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L2" s="43" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M2" s="36"/>
       <c r="O2" s="46"/>
@@ -4703,12 +4701,12 @@
         <v>USD_020_SwAM3L_Spr6L3L.xml</v>
       </c>
       <c r="K2" s="42" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(K3:K36,SerializationPath&amp;J2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L2" s="43" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(K3:K36,SerializationPath&amp;J2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L2" s="43" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M2" s="36"/>
       <c r="O2" s="46"/>
@@ -6484,12 +6482,12 @@
         <v>USD_020_SwAM3L_Spr12L3L.xml</v>
       </c>
       <c r="K2" s="42" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(K3:K36,SerializationPath&amp;J2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L2" s="43" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(K3:K36,SerializationPath&amp;J2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L2" s="43" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M2" s="36"/>
       <c r="O2" s="46"/>
